--- a/assets/data/alphabet_iaro.xlsx
+++ b/assets/data/alphabet_iaro.xlsx
@@ -289,7 +289,7 @@
     <xdr:ext cx="142875" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Изображение"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
